--- a/Experiment/Results_xls/Sonar/Sonar_accuracy_results.xlsx
+++ b/Experiment/Results_xls/Sonar/Sonar_accuracy_results.xlsx
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71.15384615384616</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="C2" t="n">
         <v>71.15384615384616</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82.69230769230769</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="C3" t="n">
         <v>76.92307692307693</v>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>71.15384615384616</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="C4" t="n">
         <v>73.07692307692307</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80.76923076923077</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="C6" t="n">
         <v>80.76923076923077</v>
@@ -725,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="C7" t="n">
         <v>75</v>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86.53846153846155</v>
+        <v>82.69230769230769</v>
       </c>
       <c r="C8" t="n">
         <v>80.76923076923077</v>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78.84615384615384</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="C9" t="n">
         <v>80.76923076923077</v>
@@ -901,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.30769230769231</v>
+        <v>63.46153846153846</v>
       </c>
       <c r="C11" t="n">
         <v>63.46153846153846</v>
@@ -945,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.61538461538461</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="C12" t="n">
         <v>78.84615384615384</v>
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88.46153846153845</v>
+        <v>86.53846153846155</v>
       </c>
       <c r="C13" t="n">
         <v>88.46153846153845</v>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76.92307692307693</v>
+        <v>71.15384615384616</v>
       </c>
       <c r="C14" t="n">
         <v>80.76923076923077</v>
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>80.76923076923077</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="C15" t="n">
         <v>78.84615384615384</v>
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>75</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="C18" t="n">
         <v>67.30769230769231</v>
@@ -1253,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>71.15384615384616</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="C19" t="n">
         <v>75</v>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>78.84615384615384</v>
+        <v>82.69230769230769</v>
       </c>
       <c r="C20" t="n">
         <v>82.69230769230769</v>
@@ -1341,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82.69230769230769</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="C21" t="n">
         <v>80.76923076923077</v>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.46153846153845</v>
+        <v>77.59615384615384</v>
       </c>
       <c r="C22" t="n">
         <v>77.40384615384616</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.905937661153186</v>
+        <v>5.484718727555556</v>
       </c>
       <c r="C23" t="n">
         <v>5.947809711251543</v>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
         <v>6.5</v>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
